--- a/PythonResources/Data/Consumption/Sympheny/futu_1631_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1631_hea.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>78.29949632811297</v>
+        <v>78.29949632811295</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>77.26817934306369</v>
+        <v>77.26817934306368</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>75.33156591958952</v>
+        <v>75.33156591958951</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>81.88141056263193</v>
+        <v>81.88141056263191</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -639,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>39.95877076628113</v>
+        <v>39.95877076628112</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>73.17895914062194</v>
+        <v>73.17895914062193</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -767,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>73.99164513082985</v>
+        <v>73.99164513082984</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>73.57636346904673</v>
+        <v>73.57636346904671</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>9.203192598666762</v>
+        <v>9.20319259866676</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>40.64924613336726</v>
+        <v>40.64924613336725</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>14.67781821506843</v>
+        <v>14.67781821506842</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>8.449501808541381</v>
+        <v>8.449501808541379</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>60.52825468576631</v>
+        <v>60.5282546857663</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>32.09420944380393</v>
+        <v>32.09420944380392</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>64.53482885530556</v>
+        <v>64.53482885530555</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>67.04644765663329</v>
+        <v>67.04644765663328</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>37.98962645751555</v>
+        <v>37.98962645751554</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>63.46570570626897</v>
+        <v>63.46570570626896</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>79.81086367448953</v>
+        <v>79.81086367448951</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>57.71330735942409</v>
+        <v>57.71330735942408</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>88.63523264858263</v>
+        <v>88.63523264858262</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>63.46072349861173</v>
+        <v>63.46072349861172</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>25.16091065377702</v>
+        <v>25.16091065377701</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>93.3900171798243</v>
+        <v>93.39001717982428</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>71.34960971729782</v>
+        <v>71.34960971729781</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>75.23749011617923</v>
+        <v>75.23749011617922</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>77.80010327823403</v>
+        <v>77.80010327823402</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>29.66552974641736</v>
+        <v>29.66552974641735</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>46.64899643684232</v>
+        <v>46.64899643684231</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>0.4515521335278544</v>
+        <v>0.4515521335278543</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>35.41646273806894</v>
+        <v>35.41646273806893</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>39.89517435089162</v>
+        <v>39.89517435089161</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>46.62584382478807</v>
+        <v>46.62584382478806</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>41.35730576277307</v>
+        <v>41.35730576277306</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>43.82613619245624</v>
+        <v>43.82613619245623</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>7.101404337803058</v>
+        <v>7.101404337803057</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>5.313026245683797</v>
+        <v>5.313026245683796</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>24.9120347277458</v>
+        <v>24.91203472774579</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>47.67562428527301</v>
+        <v>47.675624285273</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>67.66570676132471</v>
+        <v>67.6657067613247</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>9.939914575653653</v>
+        <v>9.939914575653651</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>75.51502838979152</v>
+        <v>75.51502838979151</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>83.41270673963746</v>
+        <v>83.41270673963744</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>17.70195964880712</v>
+        <v>17.70195964880711</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>77.39068303722414</v>
+        <v>77.39068303722412</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>28.03233276926928</v>
+        <v>28.03233276926927</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>62.36024174843838</v>
+        <v>62.36024174843837</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>75.59650213853938</v>
+        <v>75.59650213853936</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>82.21580461774452</v>
+        <v>82.21580461774451</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>8.679621188098269</v>
+        <v>8.679621188098267</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>56.68697258203206</v>
+        <v>56.68697258203205</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>37.08755380051593</v>
+        <v>37.08755380051592</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>59.96028301284062</v>
+        <v>59.96028301284061</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>51.22207692411395</v>
+        <v>51.22207692411394</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>23.93792520944322</v>
+        <v>23.93792520944321</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>15.91894475669536</v>
+        <v>15.91894475669535</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>544</v>
       </c>
       <c r="B544">
-        <v>14.91192336075111</v>
+        <v>14.9119233607511</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>59.92716598547189</v>
+        <v>59.92716598547188</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>80.04473436334128</v>
+        <v>80.04473436334126</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>84.11607723242469</v>
+        <v>84.11607723242467</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>24.95368012233958</v>
+        <v>24.95368012233957</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>24.09741446868273</v>
+        <v>24.09741446868272</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>59.6238374604574</v>
+        <v>59.62383746045739</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>41.07449221046487</v>
+        <v>41.07449221046486</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>3.545661347036554</v>
+        <v>3.545661347036553</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>6.182304253457214</v>
+        <v>6.182304253457213</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>44.27687944991739</v>
+        <v>44.27687944991738</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>626</v>
       </c>
       <c r="B626">
-        <v>53.91217598798644</v>
+        <v>53.91217598798643</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>24.96012768519013</v>
+        <v>24.96012768519012</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>21.18428834438896</v>
+        <v>21.18428834438895</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>7.522371577736215</v>
+        <v>7.522371577736214</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>5.944242648752602</v>
+        <v>5.944242648752601</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>36.47122540621112</v>
+        <v>36.47122540621111</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>66.00252861692158</v>
+        <v>66.00252861692157</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>8.258624641061246</v>
+        <v>8.258624641061244</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>16.07110723996833</v>
+        <v>16.07110723996832</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>14.40092469774119</v>
+        <v>14.40092469774118</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>5.203681441159249</v>
+        <v>5.203681441159248</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>4.563614292722871</v>
+        <v>4.56361429272287</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>4.980712994945698</v>
+        <v>4.980712994945697</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>692</v>
       </c>
       <c r="B692">
-        <v>29.65937525460547</v>
+        <v>29.65937525460546</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>697</v>
       </c>
       <c r="B697">
-        <v>42.28722016844552</v>
+        <v>42.28722016844551</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>58.40378272651022</v>
+        <v>58.40378272651021</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>8.719566770667811</v>
+        <v>8.719566770667809</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>0.9900672363576898</v>
+        <v>0.9900672363576896</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>14.60569343245387</v>
+        <v>14.60569343245386</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>39.80080547644266</v>
+        <v>39.80080547644265</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>746</v>
       </c>
       <c r="B746">
-        <v>36.93486378937337</v>
+        <v>36.93486378937336</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>6.967705329965752</v>
+        <v>6.967705329965751</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>787</v>
       </c>
       <c r="B787">
-        <v>63.95777198018137</v>
+        <v>63.95777198018136</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>44.39703857576854</v>
+        <v>44.39703857576853</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>798</v>
       </c>
       <c r="B798">
-        <v>86.21300051404661</v>
+        <v>86.2130005140466</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>87.31846447187721</v>
+        <v>87.31846447187719</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>30.39791427203206</v>
+        <v>30.39791427203205</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>811</v>
       </c>
       <c r="B811">
-        <v>62.87985669998494</v>
+        <v>62.87985669998493</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>74.46847171073186</v>
+        <v>74.46847171073185</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>44.27219031329881</v>
+        <v>44.2721903132988</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>57.99612091173229</v>
+        <v>57.99612091173228</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>0.8731113769591067</v>
+        <v>0.8731113769591066</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>0.2839380658835418</v>
+        <v>0.2839380658835417</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>25.26940555228945</v>
+        <v>25.26940555228944</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>0.7391573973181657</v>
+        <v>0.7391573973181655</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>43.28073098950748</v>
+        <v>43.28073098950747</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>40.91154471296916</v>
+        <v>40.91154471296915</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>35.1081520053972</v>
+        <v>35.10815200539719</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>40.19586523655816</v>
+        <v>40.19586523655815</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>25.58803238552206</v>
+        <v>25.58803238552205</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>56.71979653836213</v>
+        <v>56.71979653836212</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>59.2621877987493</v>
+        <v>59.26218779874929</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>70.56007633914416</v>
+        <v>70.56007633914415</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>963</v>
       </c>
       <c r="B963">
-        <v>79.96853589328933</v>
+        <v>79.96853589328931</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>966</v>
       </c>
       <c r="B966">
-        <v>95.42012026463144</v>
+        <v>95.42012026463142</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>25.5916371592976</v>
+        <v>25.59163715929759</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>70.37661386894216</v>
+        <v>70.37661386894214</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>98.1998990663343</v>
+        <v>98.19989906633428</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>75.98657969099763</v>
+        <v>75.98657969099762</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>80.65344291064089</v>
+        <v>80.65344291064088</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>56.54131627581737</v>
+        <v>56.54131627581736</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>48.92410690997034</v>
+        <v>48.92410690997033</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>52.18745292546442</v>
+        <v>52.18745292546441</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>5.699088724912387</v>
+        <v>5.699088724912386</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>0.3958920818652917</v>
+        <v>0.3958920818652916</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>8.947576038746337</v>
+        <v>8.947576038746336</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>48.81186070216305</v>
+        <v>48.81186070216304</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>7.022890606545683</v>
+        <v>7.022890606545682</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>1134</v>
       </c>
       <c r="B1134">
-        <v>59.59863335113252</v>
+        <v>59.59863335113251</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>5.660637804640019</v>
+        <v>5.660637804640018</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>35.42144494572618</v>
+        <v>35.42144494572617</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>1.197013488887626</v>
+        <v>1.197013488887625</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>0.202986862797621</v>
+        <v>0.2029868627976209</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>5.920064288063041</v>
+        <v>5.92006428806304</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>3.893653898343036</v>
+        <v>3.893653898343035</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>8.240161165625581</v>
+        <v>8.24016116562558</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10135,7 +10135,7 @@
         <v>1224</v>
       </c>
       <c r="B1224">
-        <v>27.41972637715547</v>
+        <v>27.41972637715546</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>40.21843170653508</v>
+        <v>40.21843170653507</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>56.13629210038739</v>
+        <v>56.13629210038738</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>17.28761581434771</v>
+        <v>17.2876158143477</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>46.55492063343203</v>
+        <v>46.55492063343202</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>70.94224097355855</v>
+        <v>70.94224097355854</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>19.61966999028763</v>
+        <v>19.61966999028762</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>39.03911384696183</v>
+        <v>39.03911384696182</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10727,7 +10727,7 @@
         <v>1298</v>
       </c>
       <c r="B1298">
-        <v>49.29337641868364</v>
+        <v>49.29337641868363</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>56.53926477854674</v>
+        <v>56.53926477854673</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>57.7950741792106</v>
+        <v>57.79507417921059</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>43.05946235531816</v>
+        <v>43.05946235531815</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>0.7074646951973277</v>
+        <v>0.7074646951973276</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11063,7 +11063,7 @@
         <v>1340</v>
       </c>
       <c r="B1340">
-        <v>9.84076864327452</v>
+        <v>9.840768643274515</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>7.926926839504335</v>
+        <v>7.926926839504334</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>9.589636070245612</v>
+        <v>9.589636070245611</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>3.443203711920548</v>
+        <v>3.443203711920547</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>4.126117846209215</v>
+        <v>4.126117846209214</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>65.25343904210318</v>
+        <v>65.25343904210317</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>90.12344738290494</v>
+        <v>90.12344738290491</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>7.444443988556163</v>
+        <v>7.444443988556162</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>32.79992450490045</v>
+        <v>32.79992450490044</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>5.62218688436765</v>
+        <v>5.622186884367649</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>2.143756033600009</v>
+        <v>2.143756033600008</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>0.5569697861343403</v>
+        <v>0.5569697861343402</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1523</v>
       </c>
       <c r="B1523">
-        <v>0.3108399357353827</v>
+        <v>0.3108399357353826</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>6.613030758977792</v>
+        <v>6.613030758977791</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12631,7 +12631,7 @@
         <v>1536</v>
       </c>
       <c r="B1536">
-        <v>17.84184245556018</v>
+        <v>17.84184245556017</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>14.34550496433033</v>
+        <v>14.34550496433032</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12863,7 +12863,7 @@
         <v>1565</v>
       </c>
       <c r="B1565">
-        <v>52.09308405101547</v>
+        <v>52.09308405101546</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>53.12996938579931</v>
+        <v>53.1299693857993</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>1.255657003723761</v>
+        <v>1.25565700372376</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>49.63216653937615</v>
+        <v>49.63216653937614</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>6.096287903610109</v>
+        <v>6.096287903610108</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>53.37995898177744</v>
+        <v>53.37995898177743</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>56.39360847233205</v>
+        <v>56.39360847233204</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>0.3037622701517112</v>
+        <v>0.3037622701517111</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13495,7 +13495,7 @@
         <v>1644</v>
       </c>
       <c r="B1644">
-        <v>0.7608124163648524</v>
+        <v>0.7608124163648523</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13591,7 +13591,7 @@
         <v>1656</v>
       </c>
       <c r="B1656">
-        <v>16.84973837548379</v>
+        <v>16.84973837548378</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13607,7 +13607,7 @@
         <v>1658</v>
       </c>
       <c r="B1658">
-        <v>24.28662113124249</v>
+        <v>24.28662113124248</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>0.4290472084690497</v>
+        <v>0.4290472084690496</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>0.4507198117780562</v>
+        <v>0.4507198117780561</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13711,7 +13711,7 @@
         <v>1671</v>
       </c>
       <c r="B1671">
-        <v>0.421099121900554</v>
+        <v>0.4210991219005539</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>1.454429504985432</v>
+        <v>1.454429504985431</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13959,7 +13959,7 @@
         <v>1702</v>
       </c>
       <c r="B1702">
-        <v>3.744304897041214</v>
+        <v>3.744304897041213</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>1.419000147121662</v>
+        <v>1.419000147121661</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14143,7 +14143,7 @@
         <v>1725</v>
       </c>
       <c r="B1725">
-        <v>3.068131396641758</v>
+        <v>3.068131396641757</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>8.480713874158814</v>
+        <v>8.480713874158813</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>1.154274939319642</v>
+        <v>1.154274939319641</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>0.611841476702904</v>
+        <v>0.6118414767029039</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>31.2656976175083</v>
+        <v>31.26569761750829</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>0.7770983739832634</v>
+        <v>0.7770983739832633</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>0.8266918551455362</v>
+        <v>0.8266918551455361</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>0.1353117777630591</v>
+        <v>0.135311777763059</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>22.51318966209496</v>
+        <v>22.51318966209495</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>4.47226404997213</v>
+        <v>4.472264049972129</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>5.709463439680999</v>
+        <v>5.709463439680998</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15135,7 +15135,7 @@
         <v>1849</v>
       </c>
       <c r="B1849">
-        <v>17.90051527750018</v>
+        <v>17.90051527750017</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
@@ -15191,7 +15191,7 @@
         <v>1856</v>
       </c>
       <c r="B1856">
-        <v>3.117894859006455</v>
+        <v>3.117894859006454</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
@@ -15311,7 +15311,7 @@
         <v>1871</v>
       </c>
       <c r="B1871">
-        <v>6.972921994453924</v>
+        <v>6.972921994453923</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>0.4394893295765534</v>
+        <v>0.4394893295765533</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15551,7 +15551,7 @@
         <v>1901</v>
       </c>
       <c r="B1901">
-        <v>32.94235702968986</v>
+        <v>32.94235702968985</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>34.29019073649339</v>
+        <v>34.29019073649338</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>8.395459509012229</v>
+        <v>8.395459509012227</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15663,7 +15663,7 @@
         <v>1915</v>
       </c>
       <c r="B1915">
-        <v>8.0280363478425</v>
+        <v>8.028036347842498</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -15863,7 +15863,7 @@
         <v>1940</v>
       </c>
       <c r="B1940">
-        <v>3.167570400059553</v>
+        <v>3.167570400059552</v>
       </c>
     </row>
     <row r="1941" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>6.463623143468238</v>
+        <v>6.463623143468237</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>40.84794829757965</v>
+        <v>40.84794829757964</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>0.5558092248212414</v>
+        <v>0.5558092248212413</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>7.402769286858519</v>
+        <v>7.402769286858518</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>7.967370642839601</v>
+        <v>7.9673706428396</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16455,7 +16455,7 @@
         <v>2014</v>
       </c>
       <c r="B2014">
-        <v>9.322208747467135</v>
+        <v>9.322208747467132</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>1.913918002240236</v>
+        <v>1.913918002240235</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16591,7 +16591,7 @@
         <v>2031</v>
       </c>
       <c r="B2031">
-        <v>0.7561555175605237</v>
+        <v>0.7561555175605236</v>
       </c>
     </row>
     <row r="2032" spans="1:2">
@@ -16623,7 +16623,7 @@
         <v>2035</v>
       </c>
       <c r="B2035">
-        <v>6.027298981109228</v>
+        <v>6.027298981109227</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>6.966181360564713</v>
+        <v>6.966181360564712</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16727,7 +16727,7 @@
         <v>2048</v>
       </c>
       <c r="B2048">
-        <v>0.3352879217805121</v>
+        <v>0.335287921780512</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16759,7 +16759,7 @@
         <v>2052</v>
       </c>
       <c r="B2052">
-        <v>0.8970552808177387</v>
+        <v>0.8970552808177386</v>
       </c>
     </row>
     <row r="2053" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>42.95718056282535</v>
+        <v>42.95718056282534</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>7.982962022096385</v>
+        <v>7.982962022096384</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>6.686386439954728</v>
+        <v>6.686386439954727</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>7.563225680525606</v>
+        <v>7.563225680525605</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>1.696356716689986</v>
+        <v>1.696356716689985</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>14.20084509964709</v>
+        <v>14.20084509964708</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18167,7 +18167,7 @@
         <v>2228</v>
       </c>
       <c r="B2228">
-        <v>7.677494078499665</v>
+        <v>7.677494078499664</v>
       </c>
     </row>
     <row r="2229" spans="1:2">
@@ -18359,7 +18359,7 @@
         <v>2252</v>
       </c>
       <c r="B2252">
-        <v>6.651481679250161</v>
+        <v>6.65148167925016</v>
       </c>
     </row>
     <row r="2253" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>7.598511433580432</v>
+        <v>7.598511433580431</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>47.03643634995262</v>
+        <v>47.03643634995261</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>5.996379986530456</v>
+        <v>5.996379986530455</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18487,7 +18487,7 @@
         <v>2268</v>
       </c>
       <c r="B2268">
-        <v>8.027362284453579</v>
+        <v>8.027362284453577</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -18495,7 +18495,7 @@
         <v>2269</v>
       </c>
       <c r="B2269">
-        <v>6.243614714745166</v>
+        <v>6.243614714745165</v>
       </c>
     </row>
     <row r="2270" spans="1:2">
@@ -18551,7 +18551,7 @@
         <v>2276</v>
       </c>
       <c r="B2276">
-        <v>7.081416892966354</v>
+        <v>7.081416892966353</v>
       </c>
     </row>
     <row r="2277" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>25.82026187655731</v>
+        <v>25.8202618765573</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>20.69916785409283</v>
+        <v>20.69916785409282</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>0.1606553889023376</v>
+        <v>0.1606553889023375</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18943,7 +18943,7 @@
         <v>2325</v>
       </c>
       <c r="B2325">
-        <v>0.8585984991245968</v>
+        <v>0.8585984991245967</v>
       </c>
     </row>
     <row r="2326" spans="1:2">
@@ -18951,7 +18951,7 @@
         <v>2326</v>
       </c>
       <c r="B2326">
-        <v>1.751111178843085</v>
+        <v>1.751111178843084</v>
       </c>
     </row>
     <row r="2327" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>19.89035040159525</v>
+        <v>19.89035040159524</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -19015,7 +19015,7 @@
         <v>2334</v>
       </c>
       <c r="B2334">
-        <v>27.93013889808807</v>
+        <v>27.93013889808806</v>
       </c>
     </row>
     <row r="2335" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>0.5712071771925085</v>
+        <v>0.5712071771925084</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>4.515286878447615</v>
+        <v>4.515286878447614</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>3.356044385022664</v>
+        <v>3.356044385022663</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>7.537523350435006</v>
+        <v>7.537523350435005</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -20127,7 +20127,7 @@
         <v>2473</v>
       </c>
       <c r="B2473">
-        <v>4.090480407907995</v>
+        <v>4.090480407907994</v>
       </c>
     </row>
     <row r="2474" spans="1:2">
@@ -20135,7 +20135,7 @@
         <v>2474</v>
       </c>
       <c r="B2474">
-        <v>7.669786310182872</v>
+        <v>7.669786310182871</v>
       </c>
     </row>
     <row r="2475" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>0.3442471034323894</v>
+        <v>0.3442471034323893</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>6.168324764913067</v>
+        <v>6.168324764913066</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>3.159540253600232</v>
+        <v>3.159540253600231</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21535,7 +21535,7 @@
         <v>2649</v>
       </c>
       <c r="B2649">
-        <v>0.9810758168915598</v>
+        <v>0.9810758168915596</v>
       </c>
     </row>
     <row r="2650" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>0.8251825392964303</v>
+        <v>0.8251825392964302</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>14.55012716352368</v>
+        <v>14.55012716352367</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21839,7 +21839,7 @@
         <v>2687</v>
       </c>
       <c r="B2687">
-        <v>0.9017121796220674</v>
+        <v>0.9017121796220672</v>
       </c>
     </row>
     <row r="2688" spans="1:2">
@@ -21863,7 +21863,7 @@
         <v>2690</v>
       </c>
       <c r="B2690">
-        <v>6.875563795410626</v>
+        <v>6.875563795410625</v>
       </c>
     </row>
     <row r="2691" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>1.005544317909396</v>
+        <v>1.005544317909395</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -23047,7 +23047,7 @@
         <v>2838</v>
       </c>
       <c r="B2838">
-        <v>21.33733004077791</v>
+        <v>21.3373300407779</v>
       </c>
     </row>
     <row r="2839" spans="1:2">
@@ -23183,7 +23183,7 @@
         <v>2855</v>
       </c>
       <c r="B2855">
-        <v>2.505347081100377</v>
+        <v>2.505347081100376</v>
       </c>
     </row>
     <row r="2856" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>4.341085453067311</v>
+        <v>4.34108545306731</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>5.305318477367004</v>
+        <v>5.305318477367003</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>0.6491933805802924</v>
+        <v>0.6491933805802923</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>3.532619685816124</v>
+        <v>3.532619685816123</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25719,7 +25719,7 @@
         <v>3172</v>
       </c>
       <c r="B3172">
-        <v>6.428894225386869</v>
+        <v>6.428894225386868</v>
       </c>
     </row>
     <row r="3173" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>1.053133193167225</v>
+        <v>1.053133193167224</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>0.4708332771613843</v>
+        <v>0.4708332771613842</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>0.142386512636344</v>
+        <v>0.1423865126363439</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>6.930397386744163</v>
+        <v>6.930397386744162</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>2.598013212814708</v>
+        <v>2.598013212814707</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>1.997328950553641</v>
+        <v>1.99732895055364</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>0.3472305666059619</v>
+        <v>0.3472305666059618</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>4.097133120485608</v>
+        <v>4.097133120485607</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>7.058205666704375</v>
+        <v>7.058205666704374</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53327,7 +53327,7 @@
         <v>6623</v>
       </c>
       <c r="B6623">
-        <v>0.3031321674185893</v>
+        <v>0.3031321674185892</v>
       </c>
     </row>
     <row r="6624" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>0.7736254821751264</v>
+        <v>0.7736254821751263</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>6.267206933357405</v>
+        <v>6.267206933357404</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>2.681022653805147</v>
+        <v>2.681022653805146</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>17.41627400032004</v>
+        <v>17.41627400032003</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>2.831816495327569</v>
+        <v>2.831816495327568</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>24.30657926897533</v>
+        <v>24.30657926897532</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54951,7 +54951,7 @@
         <v>6826</v>
       </c>
       <c r="B6826">
-        <v>0.7573483166878753</v>
+        <v>0.7573483166878752</v>
       </c>
     </row>
     <row r="6827" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>0.6301496244880782</v>
+        <v>0.6301496244880781</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>0.3807959926638458</v>
+        <v>0.3807959926638457</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55055,7 +55055,7 @@
         <v>6839</v>
       </c>
       <c r="B6839">
-        <v>6.175563619568003</v>
+        <v>6.175563619568002</v>
       </c>
     </row>
     <row r="6840" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>36.48382746087356</v>
+        <v>36.48382746087355</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55127,7 +55127,7 @@
         <v>6848</v>
       </c>
       <c r="B6848">
-        <v>2.100601323157126</v>
+        <v>2.100601323157125</v>
       </c>
     </row>
     <row r="6849" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>0.5997581577788967</v>
+        <v>0.5997581577788966</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>26.94952320272721</v>
+        <v>26.9495232027272</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>2.409460098671158</v>
+        <v>2.409460098671157</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55351,7 +55351,7 @@
         <v>6876</v>
       </c>
       <c r="B6876">
-        <v>2.301357915350534</v>
+        <v>2.301357915350533</v>
       </c>
     </row>
     <row r="6877" spans="1:2">
@@ -55359,7 +55359,7 @@
         <v>6877</v>
       </c>
       <c r="B6877">
-        <v>2.023394688732181</v>
+        <v>2.02339468873218</v>
       </c>
     </row>
     <row r="6878" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>0.2635919020955166</v>
+        <v>0.2635919020955165</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>0.7936158577222168</v>
+        <v>0.7936158577222167</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55679,7 +55679,7 @@
         <v>6917</v>
       </c>
       <c r="B6917">
-        <v>20.33244806341589</v>
+        <v>20.33244806341588</v>
       </c>
     </row>
     <row r="6918" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>7.960336937911729</v>
+        <v>7.960336937911728</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>0.3065874749644065</v>
+        <v>0.3065874749644064</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57727,7 +57727,7 @@
         <v>7173</v>
       </c>
       <c r="B7173">
-        <v>0.3815872844682314</v>
+        <v>0.3815872844682313</v>
       </c>
     </row>
     <row r="7174" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>0.9985106129815232</v>
+        <v>0.998510612981523</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>0.2908017896089905</v>
+        <v>0.2908017896089904</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>17.1374755212415</v>
+        <v>17.13747552124149</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -58127,7 +58127,7 @@
         <v>7223</v>
       </c>
       <c r="B7223">
-        <v>0.4353658200625883</v>
+        <v>0.4353658200625882</v>
       </c>
     </row>
     <row r="7224" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>19.34219033088307</v>
+        <v>19.34219033088306</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58199,7 +58199,7 @@
         <v>7232</v>
       </c>
       <c r="B7232">
-        <v>0.379846442498583</v>
+        <v>0.3798464424985829</v>
       </c>
     </row>
     <row r="7233" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>0.6519541097644823</v>
+        <v>0.6519541097644822</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58431,7 +58431,7 @@
         <v>7261</v>
       </c>
       <c r="B7261">
-        <v>0.6813432735214421</v>
+        <v>0.681343273521442</v>
       </c>
     </row>
     <row r="7262" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>5.516095168372243</v>
+        <v>5.516095168372242</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>0.951255838707768</v>
+        <v>0.9512558387077678</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>23.34313753648002</v>
+        <v>23.34313753648001</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -58879,7 +58879,7 @@
         <v>7317</v>
       </c>
       <c r="B7317">
-        <v>3.544371834466444</v>
+        <v>3.544371834466443</v>
       </c>
     </row>
     <row r="7318" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>22.33078224763214</v>
+        <v>22.33078224763213</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>5.127072671653173</v>
+        <v>5.127072671653172</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>0.3636659904540902</v>
+        <v>0.3636659904540901</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59071,7 +59071,7 @@
         <v>7341</v>
       </c>
       <c r="B7341">
-        <v>5.427704943111981</v>
+        <v>5.42770494311198</v>
       </c>
     </row>
     <row r="7342" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>7.637167503579863</v>
+        <v>7.637167503579862</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59111,7 +59111,7 @@
         <v>7346</v>
       </c>
       <c r="B7346">
-        <v>30.83107326717353</v>
+        <v>30.83107326717352</v>
       </c>
     </row>
     <row r="7347" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>40.58564971797775</v>
+        <v>40.58564971797774</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59175,7 +59175,7 @@
         <v>7354</v>
       </c>
       <c r="B7354">
-        <v>5.308542258792278</v>
+        <v>5.308542258792277</v>
       </c>
     </row>
     <row r="7355" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>3.564066208264487</v>
+        <v>3.564066208264486</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>4.371975140542217</v>
+        <v>4.371975140542216</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59895,7 +59895,7 @@
         <v>7444</v>
       </c>
       <c r="B7444">
-        <v>3.851070676425542</v>
+        <v>3.851070676425541</v>
       </c>
     </row>
     <row r="7445" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>5.789589061651011</v>
+        <v>5.78958906165101</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>7.36440628789775</v>
+        <v>7.364406287897749</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>0.4227198047443513</v>
+        <v>0.4227198047443512</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60223,7 +60223,7 @@
         <v>7485</v>
       </c>
       <c r="B7485">
-        <v>8.147081803746739</v>
+        <v>8.147081803746737</v>
       </c>
     </row>
     <row r="7486" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>47.37229576025852</v>
+        <v>47.37229576025851</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>59.62442360253472</v>
+        <v>59.62442360253471</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>48.71016505174756</v>
+        <v>48.71016505174755</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>70.68726916992318</v>
+        <v>70.68726916992317</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>9.923912896942744</v>
+        <v>9.923912896942742</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>37.39088232553042</v>
+        <v>37.39088232553041</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60663,7 +60663,7 @@
         <v>7540</v>
       </c>
       <c r="B7540">
-        <v>62.92059357435887</v>
+        <v>62.92059357435886</v>
       </c>
     </row>
     <row r="7541" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>65.81115322867572</v>
+        <v>65.81115322867571</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>19.08507910866547</v>
+        <v>19.08507910866546</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>51.30325760182314</v>
+        <v>51.30325760182313</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60911,7 +60911,7 @@
         <v>7571</v>
       </c>
       <c r="B7571">
-        <v>3.907604079783315</v>
+        <v>3.907604079783314</v>
       </c>
     </row>
     <row r="7572" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>1.075051976148707</v>
+        <v>1.075051976148706</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -60959,7 +60959,7 @@
         <v>7577</v>
       </c>
       <c r="B7577">
-        <v>1.005180909821456</v>
+        <v>1.005180909821455</v>
       </c>
     </row>
     <row r="7578" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>51.26545143783583</v>
+        <v>51.26545143783582</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>6.847311747283672</v>
+        <v>6.847311747283671</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>11.38352389789171</v>
+        <v>11.3835238978917</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61391,7 +61391,7 @@
         <v>7631</v>
       </c>
       <c r="B7631">
-        <v>28.11269284807022</v>
+        <v>28.11269284807021</v>
       </c>
     </row>
     <row r="7632" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>53.66247946304697</v>
+        <v>53.66247946304696</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>56.99733481197442</v>
+        <v>56.99733481197441</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>61.32570098196383</v>
+        <v>61.32570098196382</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61471,7 +61471,7 @@
         <v>7641</v>
       </c>
       <c r="B7641">
-        <v>8.998101485811553</v>
+        <v>8.998101485811551</v>
       </c>
     </row>
     <row r="7642" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>1.846036888265495</v>
+        <v>1.846036888265494</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61599,7 +61599,7 @@
         <v>7657</v>
       </c>
       <c r="B7657">
-        <v>27.87082131986301</v>
+        <v>27.870821319863</v>
       </c>
     </row>
     <row r="7658" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>31.77388279854708</v>
+        <v>31.77388279854707</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>37.66314532044681</v>
+        <v>37.6631453204468</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>41.85933645199995</v>
+        <v>41.85933645199994</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61687,7 +61687,7 @@
         <v>7668</v>
       </c>
       <c r="B7668">
-        <v>4.857857615538862</v>
+        <v>4.857857615538861</v>
       </c>
     </row>
     <row r="7669" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>2.510985767884221</v>
+        <v>2.51098576788422</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>17.68123952637376</v>
+        <v>17.68123952637375</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>4.906009187190921</v>
+        <v>4.90600918719092</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>0.7626529024876457</v>
+        <v>0.7626529024876456</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>15.77109041769071</v>
+        <v>15.7710904176907</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -61999,7 +61999,7 @@
         <v>7707</v>
       </c>
       <c r="B7707">
-        <v>32.8813982536483</v>
+        <v>32.88139825364829</v>
       </c>
     </row>
     <row r="7708" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>36.81499773456088</v>
+        <v>36.81499773456087</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>0.9669527235384696</v>
+        <v>0.9669527235384694</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>0.4383199761322946</v>
+        <v>0.4383199761322945</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>8.833659326018672</v>
+        <v>8.833659326018671</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>2.438550329968683</v>
+        <v>2.438550329968682</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62367,7 +62367,7 @@
         <v>7753</v>
       </c>
       <c r="B7753">
-        <v>10.95698830822399</v>
+        <v>10.95698830822398</v>
       </c>
     </row>
     <row r="7754" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>21.47132211965388</v>
+        <v>21.47132211965387</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>6.217062478642449</v>
+        <v>6.217062478642448</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>17.14149059447116</v>
+        <v>17.14149059447115</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>7.440839214780628</v>
+        <v>7.440839214780627</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63759,7 +63759,7 @@
         <v>7927</v>
       </c>
       <c r="B7927">
-        <v>36.92958851067746</v>
+        <v>36.92958851067745</v>
       </c>
     </row>
     <row r="7928" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>6.308119650354529</v>
+        <v>6.308119650354528</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>0.7666796985588525</v>
+        <v>0.7666796985588524</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>7.787425025101535</v>
+        <v>7.787425025101534</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>29.93955116756572</v>
+        <v>29.93955116756571</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>26.37287662705715</v>
+        <v>26.37287662705714</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>45.8644452663459</v>
+        <v>45.86444526634589</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>53.29350302537234</v>
+        <v>53.29350302537233</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>4.556961580145258</v>
+        <v>4.556961580145257</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>3.192891737799893</v>
+        <v>3.192891737799892</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>34.61139659486622</v>
+        <v>34.61139659486621</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65455,7 +65455,7 @@
         <v>8139</v>
       </c>
       <c r="B8139">
-        <v>47.63986961855633</v>
+        <v>47.63986961855632</v>
       </c>
     </row>
     <row r="8140" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>60.24075199683953</v>
+        <v>60.24075199683952</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>5.688245096481917</v>
+        <v>5.688245096481916</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>6.685624455254208</v>
+        <v>6.685624455254207</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65623,7 +65623,7 @@
         <v>8160</v>
       </c>
       <c r="B8160">
-        <v>47.19674620810037</v>
+        <v>47.19674620810036</v>
       </c>
     </row>
     <row r="8161" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>52.75073546177153</v>
+        <v>52.75073546177152</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65959,7 +65959,7 @@
         <v>8202</v>
       </c>
       <c r="B8202">
-        <v>30.58518666573666</v>
+        <v>30.58518666573665</v>
       </c>
     </row>
     <row r="8203" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>57.64209109702938</v>
+        <v>57.64209109702937</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>71.01638794633988</v>
+        <v>71.01638794633986</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>16.13616901055115</v>
+        <v>16.13616901055114</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>42.73298121824942</v>
+        <v>42.73298121824941</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>3.70186821064305</v>
+        <v>3.701868210643049</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>3.316509101907248</v>
+        <v>3.316509101907247</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>23.91521220394697</v>
+        <v>23.91521220394696</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>72.45038453850984</v>
+        <v>72.45038453850982</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66879,7 +66879,7 @@
         <v>8317</v>
       </c>
       <c r="B8317">
-        <v>37.67604044614791</v>
+        <v>37.6760404461479</v>
       </c>
     </row>
     <row r="8318" spans="1:2">
@@ -66895,7 +66895,7 @@
         <v>8319</v>
       </c>
       <c r="B8319">
-        <v>26.74041701664234</v>
+        <v>26.74041701664233</v>
       </c>
     </row>
     <row r="8320" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>71.55358716020612</v>
+        <v>71.55358716020611</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>8.677511076619908</v>
+        <v>8.677511076619906</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>7.953186004568392</v>
+        <v>7.953186004568391</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>40.8582057839328</v>
+        <v>40.85820578393279</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>46.36618288453412</v>
+        <v>46.36618288453411</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>7.207877046148725</v>
+        <v>7.207877046148724</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>5.701081607975285</v>
+        <v>5.701081607975284</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>44.09869225841129</v>
+        <v>44.09869225841128</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>8.952822010338375</v>
+        <v>8.952822010338373</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>4.625100596634021</v>
+        <v>4.62510059663402</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>3.665849779991572</v>
+        <v>3.665849779991571</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>42.8757068140775</v>
+        <v>42.87570681407749</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>19.46454748952418</v>
+        <v>19.46454748952417</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67999,7 +67999,7 @@
         <v>8457</v>
       </c>
       <c r="B8457">
-        <v>5.907022626842611</v>
+        <v>5.90702262684261</v>
       </c>
     </row>
     <row r="8458" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>3.001369814034704</v>
+        <v>3.001369814034703</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>26.97645643118019</v>
+        <v>26.97645643118018</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68151,7 +68151,7 @@
         <v>8476</v>
       </c>
       <c r="B8476">
-        <v>56.53926477854674</v>
+        <v>56.53926477854673</v>
       </c>
     </row>
     <row r="8477" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>59.31083759116708</v>
+        <v>59.31083759116707</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>60.01889722057289</v>
+        <v>60.01889722057288</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>14.41707291197143</v>
+        <v>14.41707291197142</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68239,7 +68239,7 @@
         <v>8487</v>
       </c>
       <c r="B8487">
-        <v>8.242622962350337</v>
+        <v>8.242622962350335</v>
       </c>
     </row>
     <row r="8488" spans="1:2">
@@ -68271,7 +68271,7 @@
         <v>8491</v>
       </c>
       <c r="B8491">
-        <v>51.76689598498539</v>
+        <v>51.76689598498538</v>
       </c>
     </row>
     <row r="8492" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>59.60654626917638</v>
+        <v>59.60654626917637</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>34.2802263211789</v>
+        <v>34.28022632117889</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68599,7 +68599,7 @@
         <v>8532</v>
       </c>
       <c r="B8532">
-        <v>31.77241744335377</v>
+        <v>31.77241744335376</v>
       </c>
     </row>
     <row r="8533" spans="1:2">
@@ -68647,7 +68647,7 @@
         <v>8538</v>
       </c>
       <c r="B8538">
-        <v>25.36175223657164</v>
+        <v>25.36175223657163</v>
       </c>
     </row>
     <row r="8539" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>52.66633100263706</v>
+        <v>52.66633100263705</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>79.28831801255635</v>
+        <v>79.28831801255633</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68735,7 +68735,7 @@
         <v>8549</v>
       </c>
       <c r="B8549">
-        <v>85.1122256928346</v>
+        <v>85.11222569283458</v>
       </c>
     </row>
     <row r="8550" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>59.08898281490044</v>
+        <v>59.08898281490043</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>63.37192297389734</v>
+        <v>63.37192297389733</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>85.46860007584679</v>
+        <v>85.46860007584678</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>63.29513836176807</v>
+        <v>63.29513836176806</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>53.76681275281041</v>
+        <v>53.7668127528104</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>72.85306414563053</v>
+        <v>72.85306414563051</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>83.39746704562707</v>
+        <v>83.39746704562705</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>44.65933715537045</v>
+        <v>44.65933715537044</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>54.80399115863291</v>
+        <v>54.8039911586329</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>67.34772468437716</v>
+        <v>67.34772468437714</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>70.21571786871708</v>
+        <v>70.21571786871706</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>72.87357911833682</v>
+        <v>72.87357911833681</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>59.54001914340025</v>
+        <v>59.54001914340024</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>59.33633477153062</v>
+        <v>59.33633477153061</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>8.777712064738221</v>
+        <v>8.777712064738219</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>8.122903443057178</v>
+        <v>8.122903443057176</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>4.959113659396357</v>
+        <v>4.959113659396356</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>5.410941279700553</v>
+        <v>5.410941279700552</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>6.573436861654645</v>
+        <v>6.573436861654644</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>37.86976040270306</v>
+        <v>37.86976040270305</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>7.284573736966399</v>
+        <v>7.284573736966398</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>14.41859688137247</v>
+        <v>14.41859688137246</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>5.962119982110944</v>
+        <v>5.962119982110943</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>29.03346343733644</v>
+        <v>29.03346343733643</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>4.518803730911551</v>
+        <v>4.51880373091155</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69983,7 +69983,7 @@
         <v>8705</v>
       </c>
       <c r="B8705">
-        <v>3.038970828294954</v>
+        <v>3.038970828294953</v>
       </c>
     </row>
     <row r="8706" spans="1:2">
@@ -70103,7 +70103,7 @@
         <v>8720</v>
       </c>
       <c r="B8720">
-        <v>0.6768504944987637</v>
+        <v>0.6768504944987636</v>
       </c>
     </row>
     <row r="8721" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>4.404125033483367</v>
+        <v>4.404125033483366</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>13.89824925222925</v>
+        <v>13.89824925222924</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>6.452398522687509</v>
+        <v>6.452398522687508</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
